--- a/data/trans_dic/P07_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P07_R2-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.5986410482165467</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5348782641725216</v>
+        <v>0.5348782641725215</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6483009235439519</v>
+        <v>0.6464556540263391</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6194656800924374</v>
+        <v>0.6170199071949996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6374075815407045</v>
+        <v>0.6369201428099944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.583108649302793</v>
+        <v>0.5805133450452157</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4785195214685131</v>
+        <v>0.4759138194417445</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5019836610747606</v>
+        <v>0.5030868752350381</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5098217264352044</v>
+        <v>0.5107918856940187</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4488466513229371</v>
+        <v>0.4464109747060288</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5603490506786282</v>
+        <v>0.5605201642798558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5585967816779603</v>
+        <v>0.560183078322133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5764898911773889</v>
+        <v>0.5729529646738445</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5123671422350583</v>
+        <v>0.5111172214379808</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7042749442839082</v>
+        <v>0.7062438335385659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6815898919740294</v>
+        <v>0.6815175179017759</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7023848535752549</v>
+        <v>0.6998482884413292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6571220117757881</v>
+        <v>0.6586310713582313</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5312181800749162</v>
+        <v>0.5313731557201603</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5583980779538342</v>
+        <v>0.5611192288843692</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5764246339922423</v>
+        <v>0.5773471423927846</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5023448813617948</v>
+        <v>0.5008113391191624</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5999794299388884</v>
+        <v>0.6010636821646427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6023433876874098</v>
+        <v>0.6027780981759621</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6227209949762201</v>
+        <v>0.6192231985634719</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5584890388182115</v>
+        <v>0.5584456708107929</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.8298429744530572</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.8196950940902122</v>
+        <v>0.8196950940902121</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.8835963835882193</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.905390483146173</v>
+        <v>0.9061046543156794</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8849107624055101</v>
+        <v>0.8833623708420375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8630299379062597</v>
+        <v>0.8624294591012931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8403872726109275</v>
+        <v>0.8422402385997174</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8258510754854562</v>
+        <v>0.8260205300130544</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8179138320196117</v>
+        <v>0.8193488863784596</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8126300438513493</v>
+        <v>0.8122090863532778</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8050442851251938</v>
+        <v>0.8047247070643904</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8717906722028993</v>
+        <v>0.8718652820534155</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8588330460473567</v>
+        <v>0.8573791682566663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8432574107616245</v>
+        <v>0.8432122257854437</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8271198806156375</v>
+        <v>0.8283802708162467</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9326624229065926</v>
+        <v>0.9332647944148942</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9125088812913037</v>
+        <v>0.9114408269979826</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8939189891303115</v>
+        <v>0.8920527166706073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8719091829025852</v>
+        <v>0.8710894887793609</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8626597305162924</v>
+        <v>0.8619341014183193</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8556583634384479</v>
+        <v>0.8559681029243972</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.846875306967899</v>
+        <v>0.8472025618614869</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8331821181536418</v>
+        <v>0.8337765104299718</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8944843361167671</v>
+        <v>0.894497181602911</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8816744360283698</v>
+        <v>0.8818173538086672</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8665813696768851</v>
+        <v>0.8668365862365937</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8490545887190248</v>
+        <v>0.8486866079655042</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9424910535619592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8953973260623473</v>
+        <v>0.8953973260623472</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8571087276869085</v>
@@ -969,7 +969,7 @@
         <v>0.9212111834016393</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8911799047614524</v>
+        <v>0.8911799047614521</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8858522873985603</v>
+        <v>0.8874375675306719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9059680517407339</v>
+        <v>0.9078525700223045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9172252803032983</v>
+        <v>0.9158022306720986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8717364390915635</v>
+        <v>0.8704175585335393</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8241110851231512</v>
+        <v>0.8201442686872755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8923380111329891</v>
+        <v>0.893657716526723</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8722789258361379</v>
+        <v>0.8715463759872683</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8673065085281718</v>
+        <v>0.8663389681623784</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8677588465447824</v>
+        <v>0.8665573928918028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9068669859412345</v>
+        <v>0.9094251853371751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9023968013886791</v>
+        <v>0.9029785764005457</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8746826484831747</v>
+        <v>0.8754471321254829</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9362478431065223</v>
+        <v>0.9392040626448893</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.961250918507025</v>
+        <v>0.9613069586566504</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9603187254024791</v>
+        <v>0.9602156290101627</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9174027947356529</v>
+        <v>0.9184500562252427</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.888798595690094</v>
+        <v>0.8860787318959197</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9472696308590668</v>
+        <v>0.9485452008623775</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9251746100341576</v>
+        <v>0.926559533794857</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9056209351457934</v>
+        <v>0.9076141129135767</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9094026702175576</v>
+        <v>0.9065109524935904</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.947185426443773</v>
+        <v>0.9479392625136668</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9367203635436825</v>
+        <v>0.9366108871706803</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9045205095735934</v>
+        <v>0.9063372350888252</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8422653412513487</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8260575428336995</v>
+        <v>0.8260575428336996</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.713626529777061</v>
@@ -1105,7 +1105,7 @@
         <v>0.8005566615661633</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7904673844511781</v>
+        <v>0.7904673844511783</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.830301165466482</v>
+        <v>0.8306456534827377</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8199547832849617</v>
+        <v>0.8188139065839198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8287344767676261</v>
+        <v>0.8287797899231715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8121050144807049</v>
+        <v>0.8128409678165256</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6977721520795739</v>
+        <v>0.6981510962277921</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.718233387136113</v>
+        <v>0.7174813729557216</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7450400786922142</v>
+        <v>0.7452635026277469</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7453547398935325</v>
+        <v>0.7450227588482636</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7674791118559181</v>
+        <v>0.7669534477951858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7716732878512563</v>
+        <v>0.7720574195727473</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7911794036138279</v>
+        <v>0.791098076905583</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7813292290256446</v>
+        <v>0.7813243972274484</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8556633537307452</v>
+        <v>0.8553821084969315</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8466522998271209</v>
+        <v>0.8467949991787437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8543935004152053</v>
+        <v>0.8532336977900756</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8382354191321622</v>
+        <v>0.8387788533841636</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7302922088040439</v>
+        <v>0.7279545379440623</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7482986930934066</v>
+        <v>0.7499166198702294</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.775556300861247</v>
+        <v>0.7771632900607373</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7683707490801402</v>
+        <v>0.7685575145145306</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7871556206855586</v>
+        <v>0.7876568710603387</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7929363373865471</v>
+        <v>0.7924654201297068</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8115739497215904</v>
+        <v>0.8101676764006787</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.798990833792283</v>
+        <v>0.7986268072989698</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>668867</v>
+        <v>666963</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>603758</v>
+        <v>601374</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>480826</v>
+        <v>480459</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>337345</v>
+        <v>335844</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>629307</v>
+        <v>625880</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>671077</v>
+        <v>672552</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>504950</v>
+        <v>505911</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>368969</v>
+        <v>366967</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1315047</v>
+        <v>1315448</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1291193</v>
+        <v>1294860</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1005854</v>
+        <v>999683</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>717605</v>
+        <v>715854</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>726617</v>
+        <v>728648</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>664307</v>
+        <v>664236</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>529842</v>
+        <v>527928</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>380164</v>
+        <v>381037</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>698612</v>
+        <v>698816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>746495</v>
+        <v>750133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>570916</v>
+        <v>571830</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>412947</v>
+        <v>411686</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1408053</v>
+        <v>1410597</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1392313</v>
+        <v>1393318</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1086518</v>
+        <v>1080415</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>782201</v>
+        <v>782141</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1532218</v>
+        <v>1533426</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1733428</v>
+        <v>1730395</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1790383</v>
+        <v>1789138</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1874539</v>
+        <v>1878672</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1311181</v>
+        <v>1311450</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1435342</v>
+        <v>1437861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1615752</v>
+        <v>1614915</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1748067</v>
+        <v>1747373</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2859474</v>
+        <v>2859719</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3189496</v>
+        <v>3184096</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3426013</v>
+        <v>3425830</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3640948</v>
+        <v>3646496</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1578371</v>
+        <v>1579390</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1787489</v>
+        <v>1785397</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1854464</v>
+        <v>1850592</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1944851</v>
+        <v>1943023</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1369622</v>
+        <v>1368470</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1501579</v>
+        <v>1502123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1683842</v>
+        <v>1684493</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1809165</v>
+        <v>1810456</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2933910</v>
+        <v>2933952</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>3274323</v>
+        <v>3274854</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3520775</v>
+        <v>3521811</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>3737503</v>
+        <v>3735884</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>488466</v>
+        <v>489340</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>434179</v>
+        <v>435082</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>498883</v>
+        <v>498109</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>620316</v>
+        <v>619378</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>392616</v>
+        <v>390727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>408374</v>
+        <v>408978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>478119</v>
+        <v>477717</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>637364</v>
+        <v>636653</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>891900</v>
+        <v>890665</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>849633</v>
+        <v>852030</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>985445</v>
+        <v>986081</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1265197</v>
+        <v>1266303</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>516255</v>
+        <v>517885</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>460673</v>
+        <v>460700</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>522322</v>
+        <v>522266</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>652812</v>
+        <v>653557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>423434</v>
+        <v>422139</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>433513</v>
+        <v>434097</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>507112</v>
+        <v>507871</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>665520</v>
+        <v>666985</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>934702</v>
+        <v>931730</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>887407</v>
+        <v>888113</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1022928</v>
+        <v>1022808</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1308356</v>
+        <v>1310984</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2719617</v>
+        <v>2720746</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2798308</v>
+        <v>2794415</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2795142</v>
+        <v>2795295</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2859164</v>
+        <v>2861755</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2357910</v>
+        <v>2359190</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2549282</v>
+        <v>2546613</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2627660</v>
+        <v>2628448</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2778911</v>
+        <v>2777674</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5107309</v>
+        <v>5103811</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5372495</v>
+        <v>5375170</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5458864</v>
+        <v>5458303</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5663848</v>
+        <v>5663813</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2802690</v>
+        <v>2801769</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2889420</v>
+        <v>2889907</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2881685</v>
+        <v>2877773</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2951161</v>
+        <v>2953074</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2467801</v>
+        <v>2459902</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2655995</v>
+        <v>2661738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2735287</v>
+        <v>2740955</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2864722</v>
+        <v>2865418</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5238250</v>
+        <v>5241586</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5520531</v>
+        <v>5517253</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5599579</v>
+        <v>5589877</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>5791877</v>
+        <v>5789238</v>
       </c>
     </row>
     <row r="20">
